--- a/outputs/model_evaluation.xlsx
+++ b/outputs/model_evaluation.xlsx
@@ -8,6 +8,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RandomForest_report" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SVM_report" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GradientBoosting_report" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LogisticRegression_report" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +21,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +49,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,4 +439,548 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9192546583850931</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8849028400597907</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9017517136329017</v>
+      </c>
+      <c r="E2" t="n">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8890489913544669</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.922272047832586</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9053558327219369</v>
+      </c>
+      <c r="E3" t="n">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9035874439461884</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9035874439461884</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9035874439461884</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9035874439461884</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.90415182486978</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9035874439461884</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9035537731774193</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.90415182486978</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9035874439461884</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9035537731774194</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9117647058823529</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8804185351270553</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8958174904942966</v>
+      </c>
+      <c r="E2" t="n">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.884393063583815</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9147982062780269</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.899338721528288</v>
+      </c>
+      <c r="E3" t="n">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8976083707025411</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8976083707025411</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8976083707025411</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8976083707025411</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8980788847330839</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8976083707025411</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8975781060112923</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8980788847330839</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8976083707025411</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8975781060112923</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9099236641221374</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.890881913303438</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9003021148036254</v>
+      </c>
+      <c r="E2" t="n">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8931185944363104</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9118086696562033</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9023668639053254</v>
+      </c>
+      <c r="E3" t="n">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9013452914798207</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9013452914798207</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9013452914798207</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9013452914798207</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9015211292792239</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9013452914798207</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9013344893544755</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.901521129279224</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9013452914798207</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9013344893544752</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>precision</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f1-score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9035222052067381</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8819133034379671</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8925869894099848</v>
+      </c>
+      <c r="E2" t="n">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8846715328467153</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.905829596412556</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8951255539143279</v>
+      </c>
+      <c r="E3" t="n">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8938714499252616</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8938714499252616</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8938714499252616</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8938714499252616</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8940968690267267</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8938714499252616</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8938562716621563</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8940968690267267</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8938714499252616</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8938562716621564</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>